--- a/contract-items.xlsx
+++ b/contract-items.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\stratus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Item No.</t>
-  </si>
-  <si>
     <t>Unit of Measure</t>
   </si>
   <si>
@@ -39,6 +36,9 @@
   </si>
   <si>
     <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Item Number</t>
   </si>
 </sst>
 </file>
@@ -367,32 +367,33 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
